--- a/static/excel/newCustomers.xlsx
+++ b/static/excel/newCustomers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Product</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -49,37 +52,55 @@
     <t>Picture</t>
   </si>
   <si>
-    <t>Ok9</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>DateInsert</t>
+  </si>
+  <si>
+    <t>TimeInsert</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>าแากา</t>
   </si>
   <si>
     <t>RealEstate</t>
   </si>
   <si>
-    <t>Jdhsh</t>
-  </si>
-  <si>
-    <t>0546469</t>
-  </si>
-  <si>
-    <t>xnxjkeje@djdj.com</t>
-  </si>
-  <si>
-    <t>tamsudsuay@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jdhdb</t>
-  </si>
-  <si>
-    <t>🐶</t>
-  </si>
-  <si>
-    <t>2-11-2020</t>
-  </si>
-  <si>
-    <t>21:25:59</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hQO_EpGbjDmBiPCcidn5xN155AA0VEggoGlwUDkE6UlBLX0FlWQ1FARRpUFMdCRtkXlhDUUBpVFZO</t>
+    <t>กนนก</t>
+  </si>
+  <si>
+    <t>6869</t>
+  </si>
+  <si>
+    <t>cbb</t>
+  </si>
+  <si>
+    <t>wera.watcharapon@gmail.com</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>6-11-2020</t>
+  </si>
+  <si>
+    <t>13:4:7</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
+  </si>
+  <si>
+    <t>13:9:24</t>
+  </si>
+  <si>
+    <t>['']</t>
   </si>
 </sst>
 </file>
@@ -450,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,48 +511,75 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/newCustomers.xlsx
+++ b/static/excel/newCustomers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -52,55 +52,46 @@
     <t>Picture</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>DateInsert</t>
-  </si>
-  <si>
-    <t>TimeInsert</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
-    <t>าแากา</t>
-  </si>
-  <si>
-    <t>RealEstate</t>
-  </si>
-  <si>
-    <t>กนนก</t>
-  </si>
-  <si>
-    <t>6869</t>
-  </si>
-  <si>
-    <t>cbb</t>
-  </si>
-  <si>
-    <t>wera.watcharapon@gmail.com</t>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>maneerat detplab</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Tmp</t>
+  </si>
+  <si>
+    <t>0801429388</t>
+  </si>
+  <si>
+    <t>maneeratmild529@gmail.com</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>6-11-2020</t>
-  </si>
-  <si>
-    <t>13:4:7</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
-  </si>
-  <si>
-    <t>13:9:24</t>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>15:50:31</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hsRXkPtZbLH1lEgTqEItTKllXIhASPCo1HXNqTBARcUlPIGx7DicwTEkVIk0fJzt-WyY0TENFIkhA</t>
   </si>
   <si>
     <t>['']</t>
+  </si>
+  <si>
+    <t>event Impact</t>
   </si>
 </sst>
 </file>
@@ -471,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,61 +511,46 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/newCustomers.xlsx
+++ b/static/excel/newCustomers.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -58,40 +52,40 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>maneerat detplab</t>
-  </si>
-  <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
-    <t>Tmp</t>
-  </si>
-  <si>
-    <t>0801429388</t>
-  </si>
-  <si>
-    <t>maneeratmild529@gmail.com</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>mild</t>
-  </si>
-  <si>
-    <t>13-11-2020</t>
-  </si>
-  <si>
-    <t>15:50:31</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hsRXkPtZbLH1lEgTqEItTKllXIhASPCo1HXNqTBARcUlPIGx7DicwTEkVIk0fJzt-WyY0TENFIkhA</t>
-  </si>
-  <si>
-    <t>['']</t>
-  </si>
-  <si>
-    <t>event Impact</t>
+    <t>Oat test</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>2526</t>
+  </si>
+  <si>
+    <t>tttg</t>
+  </si>
+  <si>
+    <t>oatgewin@gmail.com.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>MG O Sup</t>
+  </si>
+  <si>
+    <t>16-11-2020</t>
+  </si>
+  <si>
+    <t>0:16:0</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hY-LRz864BgJxKy8RHuJ5VU1uCG8GBQBKCUgZYFB8XDRVSRYGRExBZgN7XWJZSUNSRBgbZFQiDWcP</t>
+  </si>
+  <si>
+    <t>['CN010']</t>
+  </si>
+  <si>
+    <t>LINE</t>
   </si>
 </sst>
 </file>
@@ -462,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,30 +499,30 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -537,25 +531,19 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/newCustomers.xlsx
+++ b/static/excel/newCustomers.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -52,37 +58,43 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>Oat test</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>2526</t>
-  </si>
-  <si>
-    <t>tttg</t>
-  </si>
-  <si>
-    <t>oatgewin@gmail.com.</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>MG O Sup</t>
-  </si>
-  <si>
-    <t>16-11-2020</t>
-  </si>
-  <si>
-    <t>0:16:0</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hY-LRz864BgJxKy8RHuJ5VU1uCG8GBQBKCUgZYFB8XDRVSRYGRExBZgN7XWJZSUNSRBgbZFQiDWcP</t>
-  </si>
-  <si>
-    <t>['CN010']</t>
+    <t>เคนเอง เทส บาย เคน</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>BI Dashboard</t>
+  </si>
+  <si>
+    <t>บริษัทเคนเอง เข้าไหม</t>
+  </si>
+  <si>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>kane@gmail.com</t>
+  </si>
+  <si>
+    <t>wera.watcharapon@gmail.com</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>18-11-2020</t>
+  </si>
+  <si>
+    <t>17:34:28</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
+  </si>
+  <si>
+    <t>['']</t>
   </si>
   <si>
     <t>LINE</t>
@@ -456,13 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,51 +511,63 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
